--- a/data/relation_tables.xlsx
+++ b/data/relation_tables.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="285">
   <si>
     <t xml:space="preserve">crop</t>
   </si>
@@ -638,7 +638,7 @@
     <t xml:space="preserve">feed_group</t>
   </si>
   <si>
-    <t xml:space="preserve">feed_group_macro</t>
+    <t xml:space="preserve">feed_group2</t>
   </si>
   <si>
     <t xml:space="preserve">ley silage, 1st cut</t>
@@ -788,6 +788,15 @@
     <t xml:space="preserve">fish meal</t>
   </si>
   <si>
+    <t xml:space="preserve">maize gluten meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minerals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rapeseed cake</t>
+  </si>
+  <si>
     <t xml:space="preserve">by_prod</t>
   </si>
   <si>
@@ -846,9 +855,6 @@
   </si>
   <si>
     <t xml:space="preserve">pea starch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rapeseed cake</t>
   </si>
   <si>
     <t xml:space="preserve">skins</t>
@@ -882,7 +888,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -918,12 +924,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -991,31 +991,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1276,1189 +1276,1189 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F46" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="F47" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="F48" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="F50" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F51" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="F55" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="E56" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="F56" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F57" s="0" t="s">
+      <c r="F57" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2483,142 +2483,142 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="E66" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="0" t="s">
+      <c r="F66" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="E67" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F67" s="0" t="s">
+      <c r="F67" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2646,9 +2646,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2985,863 +2985,863 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>311</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>312</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>321</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>322</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>411</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>421</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>422</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>431</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>511</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>513</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>514</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>515</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>521</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>611</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>612</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>621</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>622</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>711</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>731</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>811</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>812</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>813</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>814</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>821</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>831</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>911</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>912</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>913</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>1011</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>1111</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>1112</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>1121</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>1122</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <v>1123</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="1" t="n">
         <v>1124</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="1" t="n">
         <v>1131</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="1" t="n">
         <v>1211</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="1" t="n">
         <v>1212</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="1" t="n">
         <v>1213</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="1" t="n">
         <v>1214</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="1" t="n">
         <v>1215</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="1" t="n">
         <v>1216</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="1" t="n">
         <v>1221</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="1" t="n">
         <v>1222</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="1" t="n">
         <v>1311</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="A50" s="1" t="n">
         <v>1321</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="A51" s="1" t="n">
         <v>1322</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="A52" s="1" t="n">
         <v>1331</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="A53" s="1" t="n">
         <v>1411</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="A54" s="1" t="n">
         <v>1412</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="A55" s="1" t="n">
         <v>1421</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="A56" s="1" t="n">
         <v>1511</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="A57" s="1" t="n">
         <v>1512</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+      <c r="A58" s="1" t="n">
         <v>1521</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="A59" s="1" t="n">
         <v>1522</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="A60" s="1" t="n">
         <v>1611</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="A61" s="1" t="n">
         <v>1612</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="A62" s="1" t="n">
         <v>1613</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="A63" s="1" t="n">
         <v>1614</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="A64" s="1" t="n">
         <v>1615</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="A65" s="1" t="n">
         <v>1616</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="A66" s="1" t="n">
         <v>1617</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+      <c r="A67" s="1" t="n">
         <v>1621</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+      <c r="A68" s="1" t="n">
         <v>1622</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+      <c r="A69" s="1" t="n">
         <v>1623</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+      <c r="A70" s="1" t="n">
         <v>1711</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+      <c r="A71" s="1" t="n">
         <v>1712</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+      <c r="A72" s="1" t="n">
         <v>1713</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+      <c r="A73" s="1" t="n">
         <v>1721</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+      <c r="A74" s="1" t="n">
         <v>1722</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+      <c r="A75" s="1" t="n">
         <v>1723</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+      <c r="A76" s="1" t="n">
         <v>1724</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+      <c r="A77" s="1" t="n">
         <v>1811</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+      <c r="A78" s="1" t="n">
         <v>1812</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+      <c r="A79" s="1" t="n">
         <v>1813</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+      <c r="A80" s="1" t="n">
         <v>1821</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+      <c r="A81" s="1" t="n">
         <v>1911</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+      <c r="A82" s="1" t="n">
         <v>1912</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+      <c r="A83" s="1" t="n">
         <v>1921</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+      <c r="A84" s="1" t="n">
         <v>1922</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+      <c r="A85" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
+      <c r="A86" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+      <c r="A87" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
+      <c r="A88" s="1" t="n">
         <v>2111</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
+      <c r="A89" s="1" t="n">
         <v>2121</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
+      <c r="A90" s="1" t="n">
         <v>2122</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
+      <c r="A91" s="1" t="n">
         <v>2211</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
+      <c r="A92" s="1" t="n">
         <v>2212</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
+      <c r="A93" s="1" t="n">
         <v>2221</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
+      <c r="A94" s="1" t="n">
         <v>2311</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
+      <c r="A95" s="1" t="n">
         <v>2312</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
+      <c r="A96" s="1" t="n">
         <v>2319</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
+      <c r="A97" s="1" t="n">
         <v>2331</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
+      <c r="A98" s="1" t="n">
         <v>2411</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
+      <c r="A99" s="1" t="n">
         <v>2412</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
+      <c r="A100" s="1" t="n">
         <v>2413</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
+      <c r="A101" s="1" t="n">
         <v>2414</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
+      <c r="A102" s="1" t="n">
         <v>2415</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
+      <c r="A103" s="1" t="n">
         <v>2419</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
+      <c r="A104" s="1" t="n">
         <v>2511</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
+      <c r="A105" s="1" t="n">
         <v>2512</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
+      <c r="A106" s="1" t="n">
         <v>2519</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
+      <c r="A107" s="1" t="n">
         <v>2521</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" s="1" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3861,189 +3861,189 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R46" activeCellId="0" sqref="R46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -4051,277 +4051,310 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4349,264 +4382,264 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>255</v>
+      <c r="A1" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>257</v>
+      <c r="A31" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>257</v>
+      <c r="A32" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/data/relation_tables.xlsx
+++ b/data/relation_tables.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="284">
   <si>
     <t xml:space="preserve">crop</t>
   </si>
@@ -647,7 +647,7 @@
     <t xml:space="preserve">ley silage</t>
   </si>
   <si>
-    <t xml:space="preserve">fodder</t>
+    <t xml:space="preserve">roughages</t>
   </si>
   <si>
     <t xml:space="preserve">ley silage, regrowth</t>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">peas</t>
   </si>
   <si>
-    <t xml:space="preserve">legumes</t>
+    <t xml:space="preserve">legumes and oilcrops</t>
   </si>
   <si>
     <t xml:space="preserve">broad beans</t>
@@ -704,9 +704,6 @@
     <t xml:space="preserve">rapeseed</t>
   </si>
   <si>
-    <t xml:space="preserve">other</t>
-  </si>
-  <si>
     <t xml:space="preserve">linseed</t>
   </si>
   <si>
@@ -722,13 +719,13 @@
     <t xml:space="preserve">soybean meal</t>
   </si>
   <si>
-    <t xml:space="preserve">by_product</t>
-  </si>
-  <si>
     <t xml:space="preserve">soybean protein concentrate</t>
   </si>
   <si>
     <t xml:space="preserve">rapeseed meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by-products</t>
   </si>
   <si>
     <t xml:space="preserve">sunflower seed meal</t>
@@ -888,7 +885,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -921,6 +918,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -986,7 +998,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1015,7 +1027,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1274,7 +1290,7 @@
       <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.14"/>
@@ -2644,10 +2660,10 @@
       <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15"/>
   </cols>
   <sheetData>
@@ -2983,9 +2999,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.86"/>
   </cols>
   <sheetData>
@@ -3863,15 +3879,15 @@
   </sheetPr>
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R46" activeCellId="0" sqref="R46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3881,7 +3897,7 @@
       <c r="B1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3892,7 +3908,7 @@
       <c r="B2" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3903,7 +3919,7 @@
       <c r="B3" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3914,7 +3930,7 @@
       <c r="B4" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3925,7 +3941,7 @@
       <c r="B5" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3936,7 +3952,7 @@
       <c r="B6" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3947,7 +3963,7 @@
       <c r="B7" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3958,7 +3974,7 @@
       <c r="B8" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3969,7 +3985,7 @@
       <c r="B9" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3980,7 +3996,7 @@
       <c r="B10" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3991,7 +4007,7 @@
       <c r="B11" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>216</v>
       </c>
     </row>
@@ -4002,7 +4018,7 @@
       <c r="B12" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>216</v>
       </c>
     </row>
@@ -4013,8 +4029,8 @@
       <c r="B13" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>207</v>
+      <c r="C13" s="7" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4024,7 +4040,7 @@
       <c r="B14" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4035,7 +4051,7 @@
       <c r="B15" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="7" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4047,315 +4063,315 @@
         <v>215</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>226</v>
+      <c r="C17" s="7" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>226</v>
+      <c r="C18" s="7" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>226</v>
+      <c r="C19" s="7" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="7" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>232</v>
+      <c r="C21" s="7" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>232</v>
+      <c r="C22" s="7" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>232</v>
+      <c r="C23" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>232</v>
+      <c r="C24" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>232</v>
+      <c r="C25" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>232</v>
+      <c r="C26" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>232</v>
+      <c r="C27" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>232</v>
+      <c r="C28" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>232</v>
+      <c r="C29" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>232</v>
+      <c r="C30" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>232</v>
+      <c r="C31" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>232</v>
+      <c r="C32" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>232</v>
+      <c r="C33" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>232</v>
+      <c r="C34" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>232</v>
+        <v>244</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>232</v>
+      <c r="C36" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>232</v>
+        <v>244</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>232</v>
+      <c r="C38" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>232</v>
+      <c r="C39" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>232</v>
+        <v>244</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>232</v>
+      <c r="C41" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>232</v>
+      <c r="C43" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>232</v>
+      <c r="C44" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>232</v>
+      <c r="C45" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4380,7 +4396,7 @@
       <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.29"/>
@@ -4388,258 +4404,258 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/data/relation_tables.xlsx
+++ b/data/relation_tables.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\storage.slu.se\Home$\jnka0003\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="crop" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="animal" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="region" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="feed" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="by_prod" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="crop" sheetId="1" r:id="rId1"/>
+    <sheet name="animal" sheetId="2" r:id="rId2"/>
+    <sheet name="region" sheetId="3" r:id="rId3"/>
+    <sheet name="feed" sheetId="4" r:id="rId4"/>
+    <sheet name="by_prod" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,866 +30,863 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="284">
   <si>
-    <t xml:space="preserve">crop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crop_group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crop_group2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crop_group_fertstat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">land_use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wheat, winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0111.W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cereals, winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cereals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cropland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wheat, spring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0111.S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cereals, spring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barley, winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0115.W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barley, spring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0115.S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triticale, winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01191.W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triticale, spring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01191.S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maize (corn)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixed cereals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01199.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peas, dry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grain legumes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other arable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peas, green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broad beans and horse beans, dry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beans, dry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapeseed, winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01443.W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brassicaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapeseed, spring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01443.S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potatoes, table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01510.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potatoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potatoes, starch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01510.S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sugar beet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ley for seed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01919.L.S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fodder crops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fallow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01919.FAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not included</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0199.EG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy crops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short rotation coppice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0199.SRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green manure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01919.GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ley for fodder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01919.L.F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ley for grazing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01919.L.G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ley not harvested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01919.L.NH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maize for forage and silage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cereals for fodder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01919.C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other crops for fodder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01919.O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semi-natural pastures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01919.SNG.G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semi-natural grasslands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">semi-natural grasslands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semi-natural pastures, thin soils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semi-natural pastures, wooded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semi-natural meadows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01919.SNG.F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vegetables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vegetables, berries and fruit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carrots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other root vegetables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lettuce and spinach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0121.L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabbages, cauliflowers and broccoli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0121.C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cucumbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pumpkins and squash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herbs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0121.H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other vegetables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">012.O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strawberries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Currants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other berries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0135.O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pears</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other fruit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0134.O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomatoes, greenhouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01234.GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vegetables, greenhouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenhouse crops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">greenhouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cucumbers, greenhouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01232.GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lettuce, greenhouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01214.GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other vegetables, greenhouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">012.O.GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herbs, greenhouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0121.H.GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strawberries, greenhouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01354.GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berries, greenhouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other berries, greenhouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0135.O.GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quinoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">???</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweet lupin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grey pea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunflower seeds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lentils, dry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hazelnuts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nut trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walnuts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buckwheat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wheat (add)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peas (add)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">animal_rations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">animal_NIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">breeding bulls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bulls and steers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calves, suckling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calves, for slaughter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bulls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calves, heifer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heifers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calves, steer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calves, bull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ewes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sheep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lambs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">low-performing horses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">horses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medium-performing horses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">broodmares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">young horses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">piglets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gilts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growing pigs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pigs for meat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">finishing pigs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">broilers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">breeding hens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laying hens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">breeding roosters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laying chicks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chickens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laying hens (16-28 weeks)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laying hens (29-59 weeks)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laying hens (&gt;59 weeks)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">breeding hens and roosters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">po8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 Svealands slättbygder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 Götalands skogsbygder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 Götalands norra slättbygder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 Mellersta Sveriges skogsbygder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Götalands mellanbygder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Götalands södra slättbygder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 Nedre Norrland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 Övre Norrland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feed_group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feed_group2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ley silage, 1st cut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ley silage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roughages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ley silage, regrowth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other silage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hay and straw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maize silage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grazing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wheat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dry concentrates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cereals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">triticale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">legumes and oilcrops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">broad beans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rapeseed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linseed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vegetable oils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">straw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soybeans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soybean meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soybean protein concentrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rapeseed meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">by-products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sunflower seed meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palm kernel expeller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luzern meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wheat bran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wheat bran, fine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oat hulls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oat bran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rye bran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wheat distillers grain, dry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wheat distillers grain, wet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wet concentrates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barley brewers grain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sugar beet molasses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sugar beet pulp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">whey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">whey powder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">potatoe protein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">potatoe offals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fish meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maize gluten meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minerals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rapeseed cake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">by_prod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">by_prod_group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apple pulp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other by-products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cereal by-products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barley malt culms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">broad bean okara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">butcher fat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slaughterhouse by-products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buttermilk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dairy by-products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edible blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edible offals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feathers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inedible blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inedible offals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">milling by-products from oats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">milling by-products from wheat, barley or rye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oat fibers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pea starch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slaughterhouse fat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wheat distillers grain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wheat gluten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wheat oil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wheat starch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hazelnut shells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">walnut shells</t>
+    <t>crop</t>
+  </si>
+  <si>
+    <t>CPC</t>
+  </si>
+  <si>
+    <t>crop_group</t>
+  </si>
+  <si>
+    <t>crop_group2</t>
+  </si>
+  <si>
+    <t>crop_group_fertstat</t>
+  </si>
+  <si>
+    <t>land_use</t>
+  </si>
+  <si>
+    <t>Wheat, winter</t>
+  </si>
+  <si>
+    <t>0111.W</t>
+  </si>
+  <si>
+    <t>Cereals, winter</t>
+  </si>
+  <si>
+    <t>Cereals</t>
+  </si>
+  <si>
+    <t>cropland</t>
+  </si>
+  <si>
+    <t>Wheat, spring</t>
+  </si>
+  <si>
+    <t>0111.S</t>
+  </si>
+  <si>
+    <t>Cereals, spring</t>
+  </si>
+  <si>
+    <t>Rye</t>
+  </si>
+  <si>
+    <t>0116</t>
+  </si>
+  <si>
+    <t>Barley, winter</t>
+  </si>
+  <si>
+    <t>0115.W</t>
+  </si>
+  <si>
+    <t>Barley, spring</t>
+  </si>
+  <si>
+    <t>0115.S</t>
+  </si>
+  <si>
+    <t>Oats</t>
+  </si>
+  <si>
+    <t>0117</t>
+  </si>
+  <si>
+    <t>Triticale, winter</t>
+  </si>
+  <si>
+    <t>01191.W</t>
+  </si>
+  <si>
+    <t>Triticale, spring</t>
+  </si>
+  <si>
+    <t>01191.S</t>
+  </si>
+  <si>
+    <t>Maize (corn)</t>
+  </si>
+  <si>
+    <t>0112</t>
+  </si>
+  <si>
+    <t>Mixed cereals</t>
+  </si>
+  <si>
+    <t>01199.02</t>
+  </si>
+  <si>
+    <t>Peas, dry</t>
+  </si>
+  <si>
+    <t>01705</t>
+  </si>
+  <si>
+    <t>Grain legumes</t>
+  </si>
+  <si>
+    <t>Other arable</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Peas, green</t>
+  </si>
+  <si>
+    <t>01242</t>
+  </si>
+  <si>
+    <t>Broad beans and horse beans, dry</t>
+  </si>
+  <si>
+    <t>01702</t>
+  </si>
+  <si>
+    <t>Beans, dry</t>
+  </si>
+  <si>
+    <t>01701</t>
+  </si>
+  <si>
+    <t>Rapeseed, winter</t>
+  </si>
+  <si>
+    <t>01443.W</t>
+  </si>
+  <si>
+    <t>Brassicaceae</t>
+  </si>
+  <si>
+    <t>Rapeseed, spring</t>
+  </si>
+  <si>
+    <t>01443.S</t>
+  </si>
+  <si>
+    <t>Potatoes, table</t>
+  </si>
+  <si>
+    <t>01510.T</t>
+  </si>
+  <si>
+    <t>Potatoes</t>
+  </si>
+  <si>
+    <t>Potatoes, starch</t>
+  </si>
+  <si>
+    <t>01510.S</t>
+  </si>
+  <si>
+    <t>Sugar beet</t>
+  </si>
+  <si>
+    <t>01801</t>
+  </si>
+  <si>
+    <t>Ley for seed</t>
+  </si>
+  <si>
+    <t>01919.L.S</t>
+  </si>
+  <si>
+    <t>Ley</t>
+  </si>
+  <si>
+    <t>Fodder crops</t>
+  </si>
+  <si>
+    <t>Fallow</t>
+  </si>
+  <si>
+    <t>01919.FAL</t>
+  </si>
+  <si>
+    <t>Not included</t>
+  </si>
+  <si>
+    <t>Energy grass</t>
+  </si>
+  <si>
+    <t>0199.EG</t>
+  </si>
+  <si>
+    <t>Energy crops</t>
+  </si>
+  <si>
+    <t>Short rotation coppice</t>
+  </si>
+  <si>
+    <t>0199.SRC</t>
+  </si>
+  <si>
+    <t>Green manure</t>
+  </si>
+  <si>
+    <t>01919.GM</t>
+  </si>
+  <si>
+    <t>Ley for fodder</t>
+  </si>
+  <si>
+    <t>01919.L.F</t>
+  </si>
+  <si>
+    <t>Ley for grazing</t>
+  </si>
+  <si>
+    <t>01919.L.G</t>
+  </si>
+  <si>
+    <t>Ley not harvested</t>
+  </si>
+  <si>
+    <t>01919.L.NH</t>
+  </si>
+  <si>
+    <t>Maize for forage and silage</t>
+  </si>
+  <si>
+    <t>01911</t>
+  </si>
+  <si>
+    <t>Cereals for fodder</t>
+  </si>
+  <si>
+    <t>01919.C</t>
+  </si>
+  <si>
+    <t>Other crops for fodder</t>
+  </si>
+  <si>
+    <t>01919.O</t>
+  </si>
+  <si>
+    <t>Semi-natural pastures</t>
+  </si>
+  <si>
+    <t>01919.SNG.G</t>
+  </si>
+  <si>
+    <t>Semi-natural grasslands</t>
+  </si>
+  <si>
+    <t>semi-natural grasslands</t>
+  </si>
+  <si>
+    <t>Semi-natural pastures, thin soils</t>
+  </si>
+  <si>
+    <t>Semi-natural pastures, wooded</t>
+  </si>
+  <si>
+    <t>Semi-natural meadows</t>
+  </si>
+  <si>
+    <t>01919.SNG.F</t>
+  </si>
+  <si>
+    <t>Onions</t>
+  </si>
+  <si>
+    <t>01253</t>
+  </si>
+  <si>
+    <t>Vegetables</t>
+  </si>
+  <si>
+    <t>Vegetables, berries and fruit</t>
+  </si>
+  <si>
+    <t>Carrots</t>
+  </si>
+  <si>
+    <t>01251</t>
+  </si>
+  <si>
+    <t>Other root vegetables</t>
+  </si>
+  <si>
+    <t>01259</t>
+  </si>
+  <si>
+    <t>Lettuce and spinach</t>
+  </si>
+  <si>
+    <t>0121.L</t>
+  </si>
+  <si>
+    <t>Cabbages, cauliflowers and broccoli</t>
+  </si>
+  <si>
+    <t>0121.C</t>
+  </si>
+  <si>
+    <t>Cucumbers</t>
+  </si>
+  <si>
+    <t>01232</t>
+  </si>
+  <si>
+    <t>Pumpkins and squash</t>
+  </si>
+  <si>
+    <t>01235</t>
+  </si>
+  <si>
+    <t>Herbs</t>
+  </si>
+  <si>
+    <t>0121.H</t>
+  </si>
+  <si>
+    <t>Other vegetables</t>
+  </si>
+  <si>
+    <t>012.O</t>
+  </si>
+  <si>
+    <t>Strawberries</t>
+  </si>
+  <si>
+    <t>01354</t>
+  </si>
+  <si>
+    <t>Berries</t>
+  </si>
+  <si>
+    <t>Currants</t>
+  </si>
+  <si>
+    <t>01351</t>
+  </si>
+  <si>
+    <t>Other berries</t>
+  </si>
+  <si>
+    <t>0135.O</t>
+  </si>
+  <si>
+    <t>Apples</t>
+  </si>
+  <si>
+    <t>01341</t>
+  </si>
+  <si>
+    <t>Fruit trees</t>
+  </si>
+  <si>
+    <t>Pears</t>
+  </si>
+  <si>
+    <t>01342</t>
+  </si>
+  <si>
+    <t>Other fruit</t>
+  </si>
+  <si>
+    <t>0134.O</t>
+  </si>
+  <si>
+    <t>Tomatoes, greenhouse</t>
+  </si>
+  <si>
+    <t>01234.GH</t>
+  </si>
+  <si>
+    <t>Vegetables, greenhouse</t>
+  </si>
+  <si>
+    <t>Greenhouse crops</t>
+  </si>
+  <si>
+    <t>greenhouse</t>
+  </si>
+  <si>
+    <t>Cucumbers, greenhouse</t>
+  </si>
+  <si>
+    <t>01232.GH</t>
+  </si>
+  <si>
+    <t>Lettuce, greenhouse</t>
+  </si>
+  <si>
+    <t>01214.GH</t>
+  </si>
+  <si>
+    <t>Other vegetables, greenhouse</t>
+  </si>
+  <si>
+    <t>012.O.GH</t>
+  </si>
+  <si>
+    <t>Herbs, greenhouse</t>
+  </si>
+  <si>
+    <t>0121.H.GH</t>
+  </si>
+  <si>
+    <t>Strawberries, greenhouse</t>
+  </si>
+  <si>
+    <t>01354.GH</t>
+  </si>
+  <si>
+    <t>Berries, greenhouse</t>
+  </si>
+  <si>
+    <t>Other berries, greenhouse</t>
+  </si>
+  <si>
+    <t>0135.O.GH</t>
+  </si>
+  <si>
+    <t>Quinoa</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Sweet lupin</t>
+  </si>
+  <si>
+    <t>Grey pea</t>
+  </si>
+  <si>
+    <t>Sunflower seeds</t>
+  </si>
+  <si>
+    <t>Lentils, dry</t>
+  </si>
+  <si>
+    <t>Hazelnuts</t>
+  </si>
+  <si>
+    <t>Nut trees</t>
+  </si>
+  <si>
+    <t>Walnuts</t>
+  </si>
+  <si>
+    <t>Buckwheat</t>
+  </si>
+  <si>
+    <t>Wheat (add)</t>
+  </si>
+  <si>
+    <t>Peas (add)</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>animal_rations</t>
+  </si>
+  <si>
+    <t>animal_NIR</t>
+  </si>
+  <si>
+    <t>cows</t>
+  </si>
+  <si>
+    <t>breeding bulls</t>
+  </si>
+  <si>
+    <t>bulls and steers</t>
+  </si>
+  <si>
+    <t>calves, suckling</t>
+  </si>
+  <si>
+    <t>calves</t>
+  </si>
+  <si>
+    <t>calves, for slaughter</t>
+  </si>
+  <si>
+    <t>bulls</t>
+  </si>
+  <si>
+    <t>calves, heifer</t>
+  </si>
+  <si>
+    <t>heifers</t>
+  </si>
+  <si>
+    <t>calves, steer</t>
+  </si>
+  <si>
+    <t>steers</t>
+  </si>
+  <si>
+    <t>calves, bull</t>
+  </si>
+  <si>
+    <t>ewes</t>
+  </si>
+  <si>
+    <t>sheep</t>
+  </si>
+  <si>
+    <t>rams</t>
+  </si>
+  <si>
+    <t>lambs</t>
+  </si>
+  <si>
+    <t>low-performing horses</t>
+  </si>
+  <si>
+    <t>horses</t>
+  </si>
+  <si>
+    <t>medium-performing horses</t>
+  </si>
+  <si>
+    <t>broodmares</t>
+  </si>
+  <si>
+    <t>young horses</t>
+  </si>
+  <si>
+    <t>sows</t>
+  </si>
+  <si>
+    <t>boars</t>
+  </si>
+  <si>
+    <t>piglets</t>
+  </si>
+  <si>
+    <t>gilts</t>
+  </si>
+  <si>
+    <t>growing pigs</t>
+  </si>
+  <si>
+    <t>pigs for meat</t>
+  </si>
+  <si>
+    <t>finishing pigs</t>
+  </si>
+  <si>
+    <t>broilers</t>
+  </si>
+  <si>
+    <t>breeding hens</t>
+  </si>
+  <si>
+    <t>laying hens</t>
+  </si>
+  <si>
+    <t>breeding roosters</t>
+  </si>
+  <si>
+    <t>laying chicks</t>
+  </si>
+  <si>
+    <t>chickens</t>
+  </si>
+  <si>
+    <t>laying hens (16-28 weeks)</t>
+  </si>
+  <si>
+    <t>laying hens (29-59 weeks)</t>
+  </si>
+  <si>
+    <t>laying hens (&gt;59 weeks)</t>
+  </si>
+  <si>
+    <t>breeding hens and roosters</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>po8</t>
+  </si>
+  <si>
+    <t>4 Svealands slättbygder</t>
+  </si>
+  <si>
+    <t>5 Götalands skogsbygder</t>
+  </si>
+  <si>
+    <t>3 Götalands norra slättbygder</t>
+  </si>
+  <si>
+    <t>6 Mellersta Sveriges skogsbygder</t>
+  </si>
+  <si>
+    <t>2 Götalands mellanbygder</t>
+  </si>
+  <si>
+    <t>1 Götalands södra slättbygder</t>
+  </si>
+  <si>
+    <t>7 Nedre Norrland</t>
+  </si>
+  <si>
+    <t>8 Övre Norrland</t>
+  </si>
+  <si>
+    <t>feed</t>
+  </si>
+  <si>
+    <t>feed_group</t>
+  </si>
+  <si>
+    <t>feed_group2</t>
+  </si>
+  <si>
+    <t>ley silage, 1st cut</t>
+  </si>
+  <si>
+    <t>ley silage</t>
+  </si>
+  <si>
+    <t>ley silage, regrowth</t>
+  </si>
+  <si>
+    <t>other silage</t>
+  </si>
+  <si>
+    <t>hay</t>
+  </si>
+  <si>
+    <t>hay and straw</t>
+  </si>
+  <si>
+    <t>maize silage</t>
+  </si>
+  <si>
+    <t>grazing</t>
+  </si>
+  <si>
+    <t>wheat</t>
+  </si>
+  <si>
+    <t>dry concentrates</t>
+  </si>
+  <si>
+    <t>cereals</t>
+  </si>
+  <si>
+    <t>barley</t>
+  </si>
+  <si>
+    <t>oats</t>
+  </si>
+  <si>
+    <t>triticale</t>
+  </si>
+  <si>
+    <t>rye</t>
+  </si>
+  <si>
+    <t>maize</t>
+  </si>
+  <si>
+    <t>peas</t>
+  </si>
+  <si>
+    <t>broad beans</t>
+  </si>
+  <si>
+    <t>rapeseed</t>
+  </si>
+  <si>
+    <t>linseed</t>
+  </si>
+  <si>
+    <t>vegetable oils</t>
+  </si>
+  <si>
+    <t>straw</t>
+  </si>
+  <si>
+    <t>soybeans</t>
+  </si>
+  <si>
+    <t>soybean meal</t>
+  </si>
+  <si>
+    <t>soybean protein concentrate</t>
+  </si>
+  <si>
+    <t>rapeseed meal</t>
+  </si>
+  <si>
+    <t>sunflower seed meal</t>
+  </si>
+  <si>
+    <t>palm kernel expeller</t>
+  </si>
+  <si>
+    <t>luzern meal</t>
+  </si>
+  <si>
+    <t>wheat bran</t>
+  </si>
+  <si>
+    <t>wheat bran, fine</t>
+  </si>
+  <si>
+    <t>oat hulls</t>
+  </si>
+  <si>
+    <t>oat bran</t>
+  </si>
+  <si>
+    <t>rye bran</t>
+  </si>
+  <si>
+    <t>wheat distillers grain, dry</t>
+  </si>
+  <si>
+    <t>wheat distillers grain, wet</t>
+  </si>
+  <si>
+    <t>wet concentrates</t>
+  </si>
+  <si>
+    <t>barley brewers grain</t>
+  </si>
+  <si>
+    <t>sugar beet molasses</t>
+  </si>
+  <si>
+    <t>sugar beet pulp</t>
+  </si>
+  <si>
+    <t>whey</t>
+  </si>
+  <si>
+    <t>whey powder</t>
+  </si>
+  <si>
+    <t>potatoe protein</t>
+  </si>
+  <si>
+    <t>potatoe offals</t>
+  </si>
+  <si>
+    <t>fish meal</t>
+  </si>
+  <si>
+    <t>maize gluten meal</t>
+  </si>
+  <si>
+    <t>minerals</t>
+  </si>
+  <si>
+    <t>rapeseed cake</t>
+  </si>
+  <si>
+    <t>by_prod</t>
+  </si>
+  <si>
+    <t>by_prod_group</t>
+  </si>
+  <si>
+    <t>apple pulp</t>
+  </si>
+  <si>
+    <t>other by-products</t>
+  </si>
+  <si>
+    <t>cereal by-products</t>
+  </si>
+  <si>
+    <t>barley malt culms</t>
+  </si>
+  <si>
+    <t>broad bean okara</t>
+  </si>
+  <si>
+    <t>butcher fat</t>
+  </si>
+  <si>
+    <t>slaughterhouse by-products</t>
+  </si>
+  <si>
+    <t>buttermilk</t>
+  </si>
+  <si>
+    <t>dairy by-products</t>
+  </si>
+  <si>
+    <t>edible blood</t>
+  </si>
+  <si>
+    <t>edible offals</t>
+  </si>
+  <si>
+    <t>feathers</t>
+  </si>
+  <si>
+    <t>inedible blood</t>
+  </si>
+  <si>
+    <t>inedible offals</t>
+  </si>
+  <si>
+    <t>milling by-products from oats</t>
+  </si>
+  <si>
+    <t>milling by-products from wheat, barley or rye</t>
+  </si>
+  <si>
+    <t>oat fibers</t>
+  </si>
+  <si>
+    <t>pea starch</t>
+  </si>
+  <si>
+    <t>skins</t>
+  </si>
+  <si>
+    <t>slaughterhouse fat</t>
+  </si>
+  <si>
+    <t>wheat distillers grain</t>
+  </si>
+  <si>
+    <t>wheat gluten</t>
+  </si>
+  <si>
+    <t>wheat oil</t>
+  </si>
+  <si>
+    <t>wheat starch</t>
+  </si>
+  <si>
+    <t>hazelnut shells</t>
+  </si>
+  <si>
+    <t>walnut shells</t>
+  </si>
+  <si>
+    <t>by-products</t>
+  </si>
+  <si>
+    <t>legumes and oilcrops</t>
+  </si>
+  <si>
+    <t>roughages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -894,22 +895,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -924,15 +910,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -947,7 +925,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.25"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor rgb="FF9999FF"/>
       </patternFill>
     </fill>
@@ -959,13 +937,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -973,77 +951,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1102,60 +1027,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -1187,7 +1128,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -1211,7 +1152,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1271,34 +1212,33 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.29"/>
+    <col min="1" max="1" width="33.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="23" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1318,7 +1258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1338,7 +1278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1358,7 +1298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1378,7 +1318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1398,7 +1338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1418,7 +1358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1438,7 +1378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1458,7 +1398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1478,7 +1418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1498,7 +1438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1518,7 +1458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -1538,7 +1478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -1558,7 +1498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -1578,7 +1518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
@@ -1598,7 +1538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -1618,7 +1558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -1638,7 +1578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -1658,7 +1598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
@@ -1678,7 +1618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>51</v>
       </c>
@@ -1698,7 +1638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -1718,7 +1658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
@@ -1738,7 +1678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
@@ -1758,7 +1698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
@@ -1778,7 +1718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
@@ -1798,7 +1738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -1818,7 +1758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
@@ -1838,7 +1778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>71</v>
       </c>
@@ -1858,7 +1798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
@@ -1878,7 +1818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>75</v>
       </c>
@@ -1898,7 +1838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>77</v>
       </c>
@@ -1918,7 +1858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>79</v>
       </c>
@@ -1938,7 +1878,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>83</v>
       </c>
@@ -1958,7 +1898,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>84</v>
       </c>
@@ -1978,7 +1918,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>85</v>
       </c>
@@ -1998,7 +1938,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>87</v>
       </c>
@@ -2018,7 +1958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>91</v>
       </c>
@@ -2038,7 +1978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>93</v>
       </c>
@@ -2058,7 +1998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>95</v>
       </c>
@@ -2078,7 +2018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>97</v>
       </c>
@@ -2098,7 +2038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>99</v>
       </c>
@@ -2118,7 +2058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>101</v>
       </c>
@@ -2138,7 +2078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>103</v>
       </c>
@@ -2158,7 +2098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>105</v>
       </c>
@@ -2178,7 +2118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>107</v>
       </c>
@@ -2198,7 +2138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>110</v>
       </c>
@@ -2218,7 +2158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>112</v>
       </c>
@@ -2238,7 +2178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>114</v>
       </c>
@@ -2258,7 +2198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>117</v>
       </c>
@@ -2278,7 +2218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>119</v>
       </c>
@@ -2298,7 +2238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>121</v>
       </c>
@@ -2318,7 +2258,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>126</v>
       </c>
@@ -2338,7 +2278,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>128</v>
       </c>
@@ -2358,7 +2298,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>130</v>
       </c>
@@ -2378,7 +2318,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>132</v>
       </c>
@@ -2398,7 +2338,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>134</v>
       </c>
@@ -2418,7 +2358,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>137</v>
       </c>
@@ -2438,7 +2378,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>139</v>
       </c>
@@ -2458,7 +2398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>141</v>
       </c>
@@ -2478,7 +2418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>142</v>
       </c>
@@ -2498,7 +2438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>143</v>
       </c>
@@ -2518,7 +2458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>144</v>
       </c>
@@ -2538,7 +2478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>145</v>
       </c>
@@ -2558,7 +2498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>147</v>
       </c>
@@ -2578,7 +2518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>148</v>
       </c>
@@ -2598,7 +2538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>149</v>
       </c>
@@ -2618,7 +2558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>150</v>
       </c>
@@ -2639,35 +2579,27 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15"/>
+    <col min="1" max="1" width="26" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>151</v>
       </c>
@@ -2678,7 +2610,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>154</v>
       </c>
@@ -2689,7 +2621,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>155</v>
       </c>
@@ -2700,7 +2632,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>157</v>
       </c>
@@ -2711,7 +2643,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>159</v>
       </c>
@@ -2722,7 +2654,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>161</v>
       </c>
@@ -2733,7 +2665,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>163</v>
       </c>
@@ -2744,7 +2676,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>165</v>
       </c>
@@ -2755,7 +2687,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>162</v>
       </c>
@@ -2766,7 +2698,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>164</v>
       </c>
@@ -2777,7 +2709,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>160</v>
       </c>
@@ -2788,7 +2720,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>166</v>
       </c>
@@ -2797,7 +2729,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>168</v>
       </c>
@@ -2806,7 +2738,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>169</v>
       </c>
@@ -2815,7 +2747,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>170</v>
       </c>
@@ -2824,7 +2756,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>172</v>
       </c>
@@ -2833,7 +2765,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>173</v>
       </c>
@@ -2842,7 +2774,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>174</v>
       </c>
@@ -2851,7 +2783,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>175</v>
       </c>
@@ -2860,7 +2792,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>176</v>
       </c>
@@ -2869,7 +2801,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>177</v>
       </c>
@@ -2878,7 +2810,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>178</v>
       </c>
@@ -2887,7 +2819,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>179</v>
       </c>
@@ -2896,7 +2828,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>181</v>
       </c>
@@ -2905,7 +2837,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>182</v>
       </c>
@@ -2914,7 +2846,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>183</v>
       </c>
@@ -2923,7 +2855,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>185</v>
       </c>
@@ -2932,7 +2864,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>186</v>
       </c>
@@ -2941,7 +2873,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>188</v>
       </c>
@@ -2950,7 +2882,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>189</v>
       </c>
@@ -2959,7 +2891,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>190</v>
       </c>
@@ -2968,7 +2900,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>191</v>
       </c>
@@ -2978,34 +2910,24 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.86"/>
+    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>192</v>
       </c>
@@ -3013,848 +2935,848 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>111</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>112</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>311</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>312</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>321</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>322</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>411</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>421</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>422</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>431</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>511</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>512</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>513</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>514</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>515</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>521</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>611</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>612</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>621</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>622</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>711</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>731</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>811</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>812</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>813</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>814</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>821</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>831</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>911</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>912</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>913</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>1011</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>1111</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>1112</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>1121</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>1122</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>1123</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>1124</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>1131</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>1211</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>1212</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>1213</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>1214</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>1215</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>1216</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>1221</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>1222</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>1311</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>1321</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>1322</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>1331</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>1411</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>1412</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>1421</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>1511</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>1512</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>1521</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>1522</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>1611</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>1612</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>1613</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>1614</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>1615</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>1616</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>1617</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>1621</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>1622</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>1623</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>1711</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>1712</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>1713</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>1721</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>1722</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>1723</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>1724</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>1811</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>1812</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>1813</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>1821</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>1911</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>1912</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>1921</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>1922</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>2011</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>2012</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>2019</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>2111</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>2121</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>2122</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>2211</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>2212</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>2221</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>2311</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>2312</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>2319</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>2331</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>2411</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>2412</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>2413</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>2414</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>2415</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>2419</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>2511</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>2512</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>2519</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>2521</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -3862,46 +3784,38 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="18"/>
+    <col min="1" max="1" width="27" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>205</v>
       </c>
@@ -3909,762 +3823,749 @@
         <v>206</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="7" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B15" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="B25" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="C33" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+      <c r="B43" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="B45" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.29"/>
+    <col min="1" max="1" width="23.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="B32" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>